--- a/Archivos_datos/Merluzas_a4a/Indice_abundancia_tallas_medits_GSA1_hake.xlsx
+++ b/Archivos_datos/Merluzas_a4a/Indice_abundancia_tallas_medits_GSA1_hake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josel\Dropbox\2023\SS3_MURCIA-MÁLAGA-CADIZ-SS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/SS3_Merluza/Archivos_datos/Merluzas_a4a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E6C958-3BD4-4A12-8F55-FA2D67643C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6769BC2-4A1F-8C4D-8D78-081AA3B6D764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="6405" xr2:uid="{A0795A29-8E7C-4C2D-9366-0F3C86D74DC0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="26060" windowHeight="11940" xr2:uid="{A0795A29-8E7C-4C2D-9366-0F3C86D74DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="indices" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -99,10 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -125,7 +135,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3105,7 +3115,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1995"/>
@@ -4778,9 +4788,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4818,7 +4828,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4924,7 +4934,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5066,7 +5076,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5080,12 +5090,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5099,37 +5109,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="L2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -5218,7 +5228,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -5307,7 +5317,7 @@
         <v>0.66700150000000002</v>
       </c>
     </row>
-    <row r="5" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
         <v>6</v>
       </c>
@@ -5396,7 +5406,7 @@
         <v>0.66700150000000002</v>
       </c>
     </row>
-    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>7</v>
       </c>
@@ -5485,7 +5495,7 @@
         <v>10.687429</v>
       </c>
     </row>
-    <row r="7" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>8</v>
       </c>
@@ -5574,7 +5584,7 @@
         <v>19.691746000000002</v>
       </c>
     </row>
-    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>9</v>
       </c>
@@ -5663,7 +5673,7 @@
         <v>11.713813</v>
       </c>
     </row>
-    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>10</v>
       </c>
@@ -5752,7 +5762,7 @@
         <v>6.8198059999999998</v>
       </c>
     </row>
-    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>11</v>
       </c>
@@ -5841,7 +5851,7 @@
         <v>5.2322259999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>12</v>
       </c>
@@ -5930,7 +5940,7 @@
         <v>3.4425350000000003</v>
       </c>
     </row>
-    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>13</v>
       </c>
@@ -6019,7 +6029,7 @@
         <v>3.3873610000000003</v>
       </c>
     </row>
-    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>14</v>
       </c>
@@ -6108,7 +6118,7 @@
         <v>1.948386</v>
       </c>
     </row>
-    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>15</v>
       </c>
@@ -6197,7 +6207,7 @@
         <v>4.0615779999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>16</v>
       </c>
@@ -6286,7 +6296,7 @@
         <v>5.6538520000000005</v>
       </c>
     </row>
-    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>17</v>
       </c>
@@ -6375,7 +6385,7 @@
         <v>6.0177820000000004</v>
       </c>
     </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>18</v>
       </c>
@@ -6464,7 +6474,7 @@
         <v>7.9542279999999996</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>19</v>
       </c>
@@ -6553,7 +6563,7 @@
         <v>8.7709879999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>20</v>
       </c>
@@ -6642,7 +6652,7 @@
         <v>11.191344000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>21</v>
       </c>
@@ -6731,7 +6741,7 @@
         <v>9.6530960000000015</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>22</v>
       </c>
@@ -6820,7 +6830,7 @@
         <v>9.9854459999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>23</v>
       </c>
@@ -6909,7 +6919,7 @@
         <v>8.6034360000000003</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>24</v>
       </c>
@@ -6998,7 +7008,7 @@
         <v>6.738461</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>25</v>
       </c>
@@ -7087,7 +7097,7 @@
         <v>5.5083469999999997</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>26</v>
       </c>
@@ -7176,7 +7186,7 @@
         <v>3.5722810000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>27</v>
       </c>
@@ -7265,7 +7275,7 @@
         <v>1.859283</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>28</v>
       </c>
@@ -7354,7 +7364,7 @@
         <v>1.5361790000000002</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>29</v>
       </c>
@@ -7443,7 +7453,7 @@
         <v>2.4456179999999996</v>
       </c>
     </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>30</v>
       </c>
@@ -7532,7 +7542,7 @@
         <v>2.159465</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>31</v>
       </c>
@@ -7621,7 +7631,7 @@
         <v>0.23158200000000001</v>
       </c>
     </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>32</v>
       </c>
@@ -7710,7 +7720,7 @@
         <v>1.0061180000000001</v>
       </c>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>33</v>
       </c>
@@ -7799,7 +7809,7 @@
         <v>0.87760800000000005</v>
       </c>
     </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
         <v>34</v>
       </c>
@@ -7888,7 +7898,7 @@
         <v>0.91444799999999993</v>
       </c>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <v>35</v>
       </c>
@@ -7977,7 +7987,7 @@
         <v>0.67530699999999999</v>
       </c>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <v>36</v>
       </c>
@@ -8066,7 +8076,7 @@
         <v>0.614317</v>
       </c>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
         <v>37</v>
       </c>
@@ -8155,7 +8165,7 @@
         <v>0.99679999999999991</v>
       </c>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
         <v>38</v>
       </c>
@@ -8244,7 +8254,7 @@
         <v>0.57307900000000001</v>
       </c>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
         <v>39</v>
       </c>
@@ -8333,7 +8343,7 @@
         <v>0.37590000000000001</v>
       </c>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
         <v>40</v>
       </c>
@@ -8422,7 +8432,7 @@
         <v>0.70963299999999996</v>
       </c>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
         <v>41</v>
       </c>
@@ -8511,7 +8521,7 @@
         <v>0.115962</v>
       </c>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
         <v>42</v>
       </c>
@@ -8600,7 +8610,7 @@
         <v>0.16445500000000002</v>
       </c>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1">
         <v>43</v>
       </c>
@@ -8689,7 +8699,7 @@
         <v>0.16445500000000002</v>
       </c>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1">
         <v>44</v>
       </c>
@@ -8778,7 +8788,7 @@
         <v>0.1152</v>
       </c>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1">
         <v>45</v>
       </c>
@@ -8867,7 +8877,7 @@
         <v>8.7343000000000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
         <v>46</v>
       </c>
@@ -8956,7 +8966,7 @@
         <v>8.7343000000000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1">
         <v>47</v>
       </c>
@@ -9045,7 +9055,7 @@
         <v>8.7343000000000004E-2</v>
       </c>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1">
         <v>48</v>
       </c>
@@ -9134,7 +9144,7 @@
         <v>0.13101450000000001</v>
       </c>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1">
         <v>49</v>
       </c>
@@ -9223,7 +9233,7 @@
         <v>0.13101450000000001</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <v>50</v>
       </c>
@@ -9312,7 +9322,7 @@
         <v>6.8569333333333329E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
         <v>51</v>
       </c>
@@ -9401,7 +9411,7 @@
         <v>6.8569333333333329E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <v>52</v>
       </c>
@@ -9490,7 +9500,7 @@
         <v>6.8569333333333329E-2</v>
       </c>
     </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <v>53</v>
       </c>
@@ -9579,7 +9589,7 @@
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
         <v>54</v>
       </c>
@@ -9661,14 +9671,14 @@
       <c r="AC53">
         <v>8.6351220376576759E-3</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AD53">
         <v>2.3330166666666666E-2</v>
       </c>
       <c r="AE53">
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
         <v>55</v>
       </c>
@@ -9757,7 +9767,7 @@
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
         <v>56</v>
       </c>
@@ -9846,7 +9856,7 @@
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
         <v>57</v>
       </c>
@@ -9935,7 +9945,7 @@
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
         <v>58</v>
       </c>
@@ -10024,7 +10034,7 @@
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>59</v>
       </c>
@@ -10113,7 +10123,7 @@
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
         <v>60</v>
       </c>
@@ -10202,7 +10212,7 @@
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1">
         <v>61</v>
       </c>
@@ -10291,7 +10301,7 @@
         <v>2.1944444444444447E-2</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1">
         <v>62</v>
       </c>
@@ -10380,7 +10390,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
         <v>63</v>
       </c>
@@ -10469,7 +10479,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1">
         <v>64</v>
       </c>
@@ -10558,7 +10568,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1">
         <v>65</v>
       </c>
@@ -10662,9 +10672,9 @@
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -10723,7 +10733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -10785,7 +10795,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>4</v>
       </c>
@@ -10847,7 +10857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>5</v>
       </c>
@@ -10909,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>6</v>
       </c>
@@ -10971,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>7</v>
       </c>
@@ -11033,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>8</v>
       </c>
@@ -11095,7 +11105,7 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>9</v>
       </c>
@@ -11157,7 +11167,7 @@
         <v>15.343000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10</v>
       </c>
@@ -11219,7 +11229,7 @@
         <v>79.066000000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>11</v>
       </c>
@@ -11281,7 +11291,7 @@
         <v>65.897999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>12</v>
       </c>
@@ -11343,7 +11353,7 @@
         <v>64.744</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>13</v>
       </c>
@@ -11405,7 +11415,7 @@
         <v>72.00800000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>14</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>57.167656446441619</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>15</v>
       </c>
@@ -11529,7 +11539,7 @@
         <v>116.38365644644162</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>16</v>
       </c>
@@ -11591,7 +11601,7 @@
         <v>80.87715778181682</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>17</v>
       </c>
@@ -11653,7 +11663,7 @@
         <v>69.569143439962218</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>18</v>
       </c>
@@ -11715,7 +11725,7 @@
         <v>108.69052351013507</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>19</v>
       </c>
@@ -11777,7 +11787,7 @@
         <v>393.99896769134818</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>20</v>
       </c>
@@ -11839,7 +11849,7 @@
         <v>252.54233723577354</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>21</v>
       </c>
@@ -11901,7 +11911,7 @@
         <v>248.40534115477686</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>22</v>
       </c>
@@ -11963,7 +11973,7 @@
         <v>212.23884301231229</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>23</v>
       </c>
@@ -12025,7 +12035,7 @@
         <v>157.82522026851103</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>24</v>
       </c>
@@ -12087,7 +12097,7 @@
         <v>128.36253018807767</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>25</v>
       </c>
@@ -12149,7 +12159,7 @@
         <v>114.2688257186708</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>26</v>
       </c>
@@ -12211,7 +12221,7 @@
         <v>106.64351263833038</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>27</v>
       </c>
@@ -12273,7 +12283,7 @@
         <v>82.034282945474317</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>28</v>
       </c>
@@ -12335,7 +12345,7 @@
         <v>71.383156802450628</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>29</v>
       </c>
@@ -12397,7 +12407,7 @@
         <v>60.35650920205746</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>30</v>
       </c>
@@ -12459,7 +12469,7 @@
         <v>41.027255366992875</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>31</v>
       </c>
@@ -12521,7 +12531,7 @@
         <v>37.420183766670249</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>32</v>
       </c>
@@ -12583,7 +12593,7 @@
         <v>29.124684331109112</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>33</v>
       </c>
@@ -12645,7 +12655,7 @@
         <v>28.03633009419093</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>34</v>
       </c>
@@ -12707,7 +12717,7 @@
         <v>16.918417340281191</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>35</v>
       </c>
@@ -12769,7 +12779,7 @@
         <v>19.606964256127522</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>36</v>
       </c>
@@ -12831,7 +12841,7 @@
         <v>12.362416048863381</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>37</v>
       </c>
@@ -12893,7 +12903,7 @@
         <v>9.9544906452081268</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>38</v>
       </c>
@@ -12955,7 +12965,7 @@
         <v>6.5125933702158321</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>39</v>
       </c>
@@ -13017,7 +13027,7 @@
         <v>11.128466477482505</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>40</v>
       </c>
@@ -13079,7 +13089,7 @@
         <v>4.9593663003517472</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>41</v>
       </c>
@@ -13141,7 +13151,7 @@
         <v>4.8255456727607644</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>42</v>
       </c>
@@ -13203,7 +13213,7 @@
         <v>3.0693034707192748</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>43</v>
       </c>
@@ -13265,7 +13275,7 @@
         <v>3.3974049889240554</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>44</v>
       </c>
@@ -13327,7 +13337,7 @@
         <v>1.7831032763904622</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>45</v>
       </c>
@@ -13389,7 +13399,7 @@
         <v>1.8511390236680807</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>46</v>
       </c>
@@ -13451,7 +13461,7 @@
         <v>2.203416195453034</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>47</v>
       </c>
@@ -13513,7 +13523,7 @@
         <v>1.2536078113829938</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>48</v>
       </c>
@@ -13575,7 +13585,7 @@
         <v>1.425235553458966</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>49</v>
       </c>
@@ -13637,7 +13647,7 @@
         <v>1.1477576405220415</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>50</v>
       </c>
@@ -13699,7 +13709,7 @@
         <v>0.55054339039707256</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>51</v>
       </c>
@@ -13761,7 +13771,7 @@
         <v>0.74520400493186567</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>52</v>
       </c>
@@ -13823,7 +13833,7 @@
         <v>0.69776908338026045</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>53</v>
       </c>
@@ -13885,7 +13895,7 @@
         <v>0.26211193622519485</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>54</v>
       </c>
@@ -13947,7 +13957,7 @@
         <v>0.29777430701681207</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>55</v>
       </c>
@@ -14009,7 +14019,7 @@
         <v>0.12065644644162522</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>56</v>
       </c>
@@ -14071,7 +14081,7 @@
         <v>9.21382992257085E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>57</v>
       </c>
@@ -14133,7 +14143,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>58</v>
       </c>
@@ -14195,7 +14205,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>59</v>
       </c>
@@ -14257,7 +14267,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>60</v>
       </c>
@@ -14319,7 +14329,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>61</v>
       </c>
@@ -14381,7 +14391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>62</v>
       </c>
@@ -14443,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>63</v>
       </c>
@@ -14505,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>64</v>
       </c>
@@ -14567,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>65</v>
       </c>
@@ -14629,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>66</v>
       </c>
@@ -14691,7 +14701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>67</v>
       </c>
@@ -14753,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>68</v>
       </c>
@@ -14815,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>69</v>
       </c>
@@ -14877,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>70</v>
       </c>
@@ -14939,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>71</v>
       </c>
@@ -15001,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>72</v>
       </c>
@@ -15063,7 +15073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>73</v>
       </c>
@@ -15125,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>74</v>
       </c>
@@ -15187,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>75</v>
       </c>
@@ -15249,65 +15259,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>353.37275560520783</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>464.51468310225101</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>322.92588652179762</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>333.0111581187316</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="3">
         <v>310.22816081316194</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="3">
         <v>293.44029841965323</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="3">
         <v>570.66324185966357</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="3">
         <v>530.76505066154061</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="3">
         <v>652.71966689448027</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="3">
         <v>447.73886593229952</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M75" s="3">
         <v>337.66928494011853</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="3">
         <v>248.24558017048344</v>
       </c>
-      <c r="O75" s="4">
+      <c r="O75" s="3">
         <v>175.11857756839157</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="3">
         <v>170.47459999999998</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="3">
         <v>295.70999999999998</v>
       </c>
-      <c r="R75" s="4">
+      <c r="R75" s="3">
         <v>425.42000000000007</v>
       </c>
-      <c r="S75" s="4">
+      <c r="S75" s="3">
         <v>274.48</v>
       </c>
-      <c r="T75" s="4">
+      <c r="T75" s="3">
         <v>171</v>
       </c>
-      <c r="U75" s="4">
+      <c r="U75" s="3">
         <v>287.49399999999997</v>
       </c>
     </row>
